--- a/web+db_press_counter.xlsx
+++ b/web+db_press_counter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h070017/koshikawa_project/web_db_press_counter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BADCD4E-4D57-DF4F-9C4A-657FB0CFD086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945BA21-AAEE-0740-8ECB-969855E0C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12940" yWindow="1940" windowWidth="41620" windowHeight="24360" xr2:uid="{099B6230-D97F-094B-8BC2-B7F0E0289C41}"/>
   </bookViews>
@@ -801,6 +801,9 @@
                 <c:pt idx="134">
                   <c:v>189</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1254,6 +1257,9 @@
                 <c:pt idx="134">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1707,6 +1713,9 @@
                 <c:pt idx="134">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>130</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2160,6 +2169,9 @@
                 <c:pt idx="134">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2613,6 +2625,9 @@
                 <c:pt idx="134">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3065,6 +3080,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,6 +3536,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,6 +4304,9 @@
                 <c:pt idx="134">
                   <c:v>41</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4735,6 +4759,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5191,6 +5218,9 @@
                 <c:pt idx="134">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5643,6 +5673,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6402,6 +6435,9 @@
                 <c:pt idx="134">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6855,6 +6891,9 @@
                 <c:pt idx="134">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7307,6 +7346,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8066,6 +8108,9 @@
                 <c:pt idx="134">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8519,6 +8564,9 @@
                 <c:pt idx="134">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8972,6 +9020,9 @@
                 <c:pt idx="134">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9424,6 +9475,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9878,6 +9932,9 @@
                 <c:pt idx="134">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10330,6 +10387,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11085,6 +11145,9 @@
                 <c:pt idx="134">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11538,6 +11601,9 @@
                 <c:pt idx="134">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11990,6 +12056,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12749,6 +12818,9 @@
                 <c:pt idx="134">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13202,6 +13274,9 @@
                 <c:pt idx="134">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13655,6 +13730,9 @@
                 <c:pt idx="134">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14107,6 +14185,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14876,6 +14957,9 @@
                 <c:pt idx="134">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15327,6 +15411,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -16083,6 +16170,9 @@
                 <c:pt idx="134">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16536,6 +16626,9 @@
                 <c:pt idx="134">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16987,6 +17080,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -17747,6 +17843,9 @@
                 <c:pt idx="134">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18199,6 +18298,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18958,6 +19060,9 @@
                 <c:pt idx="134">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19411,6 +19516,9 @@
                 <c:pt idx="134">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19863,6 +19971,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20316,6 +20427,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21075,6 +21189,9 @@
                 <c:pt idx="134">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21527,6 +21644,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21979,6 +22099,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -22739,6 +22862,9 @@
                 <c:pt idx="134">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23190,6 +23316,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -23643,6 +23772,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -30428,7 +30560,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30461,7 +30593,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30494,7 +30626,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30527,7 +30659,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30692,7 +30824,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30725,7 +30857,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30758,7 +30890,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -30791,7 +30923,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6072404"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -31117,7 +31249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379325A-3C8C-BE4C-A55A-946E6C267FC1}">
-  <dimension ref="A1:AS136"/>
+  <dimension ref="A1:AS137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -49755,6 +49887,143 @@
         <v>23</v>
       </c>
     </row>
+    <row r="137" spans="1:45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>37</v>
+      </c>
+      <c r="D137">
+        <v>130</v>
+      </c>
+      <c r="E137">
+        <v>37</v>
+      </c>
+      <c r="F137">
+        <v>25</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>25</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>15</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>27</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <v>26</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>7</v>
+      </c>
+      <c r="W137">
+        <v>21</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>25</v>
+      </c>
+      <c r="Z137">
+        <v>1</v>
+      </c>
+      <c r="AA137">
+        <v>5</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>12</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>1</v>
+      </c>
+      <c r="AH137">
+        <v>16</v>
+      </c>
+      <c r="AI137">
+        <v>15</v>
+      </c>
+      <c r="AJ137">
+        <v>17</v>
+      </c>
+      <c r="AK137">
+        <v>13</v>
+      </c>
+      <c r="AL137">
+        <v>11</v>
+      </c>
+      <c r="AM137">
+        <v>18</v>
+      </c>
+      <c r="AN137">
+        <v>17</v>
+      </c>
+      <c r="AO137">
+        <v>3</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>51</v>
+      </c>
+      <c r="AR137">
+        <v>12</v>
+      </c>
+      <c r="AS137">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/web+db_press_counter.xlsx
+++ b/web+db_press_counter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h070017/koshikawa_project/web_db_press_counter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945BA21-AAEE-0740-8ECB-969855E0C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA23FE3F-BC6D-CB45-AE8D-8905CCC4CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="1940" windowWidth="41620" windowHeight="24360" xr2:uid="{099B6230-D97F-094B-8BC2-B7F0E0289C41}"/>
+    <workbookView xWindow="5840" yWindow="2120" windowWidth="41620" windowHeight="24360" xr2:uid="{099B6230-D97F-094B-8BC2-B7F0E0289C41}"/>
   </bookViews>
   <sheets>
     <sheet name="web+db_press_counter" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="OS" sheetId="13" r:id="rId11"/>
     <sheet name="ブラウザ" sheetId="14" r:id="rId12"/>
     <sheet name="メディア" sheetId="15" r:id="rId13"/>
+    <sheet name="エディタ" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>perl</t>
   </si>
@@ -183,6 +184,24 @@
   </si>
   <si>
     <t>swift</t>
+  </si>
+  <si>
+    <t>emacs</t>
+  </si>
+  <si>
+    <t>vim?</t>
+  </si>
+  <si>
+    <t>vscode</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>intellij</t>
   </si>
 </sst>
 </file>
@@ -10398,6 +10417,3047 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C7F2-E847-A9A6-5CA00CBE503D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="288610128"/>
+        <c:axId val="288612560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="288610128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288612560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288612560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288610128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>WEB+DB PRESS </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>出現回数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>エディタ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'web+db_press_counter'!$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emacs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'web+db_press_counter'!$AT$2:$AT$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACC9-544D-8D19-F1EAD176A040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'web+db_press_counter'!$AU$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vim?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'web+db_press_counter'!$AU$2:$AU$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACC9-544D-8D19-F1EAD176A040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'web+db_press_counter'!$AV$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vscode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'web+db_press_counter'!$AV$2:$AV$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACC9-544D-8D19-F1EAD176A040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'web+db_press_counter'!$AW$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'web+db_press_counter'!$AW$2:$AW$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACC9-544D-8D19-F1EAD176A040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'web+db_press_counter'!$AX$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eclipse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'web+db_press_counter'!$AX$2:$AX$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ACC9-544D-8D19-F1EAD176A040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'web+db_press_counter'!$AY$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intellij</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'web+db_press_counter'!$AY$2:$AY$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ACC9-544D-8D19-F1EAD176A040}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24113,6 +27173,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -25961,6 +29061,502 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30468,6 +34064,17 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{45FBCAE0-606C-7D4E-B35E-F14502131C1B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="206" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C87BA411-4FC5-344C-81D5-09B398D45F9D}">
   <sheetPr/>
@@ -30688,11 +34295,44 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31DE344-B658-8FA3-1BD5-0C4269F0E73C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6070600"/>
+    <xdr:ext cx="9309223" cy="6072573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -31249,13 +34889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379325A-3C8C-BE4C-A55A-946E6C267FC1}">
-  <dimension ref="A1:AS137"/>
+  <dimension ref="A1:AY137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -31391,8 +35031,26 @@
       <c r="AS1" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:51">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31528,8 +35186,26 @@
       <c r="AS2">
         <v>9</v>
       </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:51">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31665,8 +35341,26 @@
       <c r="AS3">
         <v>0</v>
       </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:51">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31802,8 +35496,26 @@
       <c r="AS4">
         <v>32</v>
       </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:51">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31939,8 +35651,26 @@
       <c r="AS5">
         <v>15</v>
       </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:51">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32076,8 +35806,26 @@
       <c r="AS6">
         <v>32</v>
       </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:51">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32213,8 +35961,26 @@
       <c r="AS7">
         <v>6</v>
       </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:51">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32350,8 +36116,26 @@
       <c r="AS8">
         <v>31</v>
       </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:51">
       <c r="A9">
         <v>8</v>
       </c>
@@ -32487,8 +36271,26 @@
       <c r="AS9">
         <v>11</v>
       </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:51">
       <c r="A10">
         <v>9</v>
       </c>
@@ -32624,8 +36426,26 @@
       <c r="AS10">
         <v>2</v>
       </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:51">
       <c r="A11">
         <v>10</v>
       </c>
@@ -32761,8 +36581,26 @@
       <c r="AS11">
         <v>20</v>
       </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>50</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:51">
       <c r="A12">
         <v>11</v>
       </c>
@@ -32898,8 +36736,26 @@
       <c r="AS12">
         <v>14</v>
       </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:51">
       <c r="A13">
         <v>12</v>
       </c>
@@ -33035,8 +36891,26 @@
       <c r="AS13">
         <v>4</v>
       </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>38</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:51">
       <c r="A14">
         <v>13</v>
       </c>
@@ -33172,8 +37046,26 @@
       <c r="AS14">
         <v>13</v>
       </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:51">
       <c r="A15">
         <v>14</v>
       </c>
@@ -33309,8 +37201,26 @@
       <c r="AS15">
         <v>14</v>
       </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>194</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:51">
       <c r="A16">
         <v>15</v>
       </c>
@@ -33446,8 +37356,26 @@
       <c r="AS16">
         <v>16</v>
       </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>21</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:51">
       <c r="A17">
         <v>16</v>
       </c>
@@ -33583,8 +37511,26 @@
       <c r="AS17">
         <v>24</v>
       </c>
+      <c r="AT17">
+        <v>3</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>45</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:51">
       <c r="A18">
         <v>17</v>
       </c>
@@ -33720,8 +37666,26 @@
       <c r="AS18">
         <v>4</v>
       </c>
+      <c r="AT18">
+        <v>2</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>135</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:51">
       <c r="A19">
         <v>18</v>
       </c>
@@ -33857,8 +37821,26 @@
       <c r="AS19">
         <v>42</v>
       </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>23</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:51">
       <c r="A20">
         <v>19</v>
       </c>
@@ -33994,8 +37976,26 @@
       <c r="AS20">
         <v>3</v>
       </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>7</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:51">
       <c r="A21">
         <v>20</v>
       </c>
@@ -34131,8 +38131,26 @@
       <c r="AS21">
         <v>36</v>
       </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>12</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>153</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:51">
       <c r="A22">
         <v>21</v>
       </c>
@@ -34268,8 +38286,26 @@
       <c r="AS22">
         <v>27</v>
       </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>317</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:51">
       <c r="A23">
         <v>22</v>
       </c>
@@ -34405,8 +38441,26 @@
       <c r="AS23">
         <v>8</v>
       </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>25</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:51">
       <c r="A24">
         <v>23</v>
       </c>
@@ -34542,8 +38596,26 @@
       <c r="AS24">
         <v>30</v>
       </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>99</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:51">
       <c r="A25">
         <v>24</v>
       </c>
@@ -34679,8 +38751,26 @@
       <c r="AS25">
         <v>10</v>
       </c>
+      <c r="AT25">
+        <v>19</v>
+      </c>
+      <c r="AU25">
+        <v>24</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>368</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:51">
       <c r="A26">
         <v>25</v>
       </c>
@@ -34816,8 +38906,26 @@
       <c r="AS26">
         <v>18</v>
       </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>59</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:51">
       <c r="A27">
         <v>26</v>
       </c>
@@ -34953,8 +39061,26 @@
       <c r="AS27">
         <v>2</v>
       </c>
+      <c r="AT27">
+        <v>3</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>173</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:51">
       <c r="A28">
         <v>27</v>
       </c>
@@ -35090,8 +39216,26 @@
       <c r="AS28">
         <v>5</v>
       </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28">
+        <v>43</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:51">
       <c r="A29">
         <v>28</v>
       </c>
@@ -35227,8 +39371,26 @@
       <c r="AS29">
         <v>2</v>
       </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>51</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:51">
       <c r="A30">
         <v>29</v>
       </c>
@@ -35364,8 +39526,26 @@
       <c r="AS30">
         <v>2</v>
       </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>95</v>
+      </c>
+      <c r="AY30">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:51">
       <c r="A31">
         <v>30</v>
       </c>
@@ -35501,8 +39681,26 @@
       <c r="AS31">
         <v>75</v>
       </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>27</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:51">
       <c r="A32">
         <v>31</v>
       </c>
@@ -35638,8 +39836,26 @@
       <c r="AS32">
         <v>21</v>
       </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>1</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>18</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:51">
       <c r="A33">
         <v>32</v>
       </c>
@@ -35775,8 +39991,26 @@
       <c r="AS33">
         <v>25</v>
       </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
+        <v>93</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:51">
       <c r="A34">
         <v>33</v>
       </c>
@@ -35912,8 +40146,26 @@
       <c r="AS34">
         <v>2</v>
       </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>12</v>
+      </c>
+      <c r="AX34">
+        <v>52</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:51">
       <c r="A35">
         <v>34</v>
       </c>
@@ -36049,8 +40301,26 @@
       <c r="AS35">
         <v>5</v>
       </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>8</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>31</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:51">
       <c r="A36">
         <v>35</v>
       </c>
@@ -36186,8 +40456,26 @@
       <c r="AS36">
         <v>3</v>
       </c>
+      <c r="AT36">
+        <v>4</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>57</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:51">
       <c r="A37">
         <v>36</v>
       </c>
@@ -36323,8 +40611,26 @@
       <c r="AS37">
         <v>65</v>
       </c>
+      <c r="AT37">
+        <v>19</v>
+      </c>
+      <c r="AU37">
+        <v>4</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>156</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:51">
       <c r="A38">
         <v>37</v>
       </c>
@@ -36460,8 +40766,26 @@
       <c r="AS38">
         <v>2</v>
       </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>7</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>56</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:51">
       <c r="A39">
         <v>38</v>
       </c>
@@ -36597,8 +40921,26 @@
       <c r="AS39">
         <v>0</v>
       </c>
+      <c r="AT39">
+        <v>13</v>
+      </c>
+      <c r="AU39">
+        <v>7</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>7</v>
+      </c>
+      <c r="AX39">
+        <v>8</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:51">
       <c r="A40">
         <v>39</v>
       </c>
@@ -36734,8 +41076,26 @@
       <c r="AS40">
         <v>4</v>
       </c>
+      <c r="AT40">
+        <v>72</v>
+      </c>
+      <c r="AU40">
+        <v>68</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>14</v>
+      </c>
+      <c r="AX40">
+        <v>43</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:51">
       <c r="A41">
         <v>40</v>
       </c>
@@ -36871,8 +41231,26 @@
       <c r="AS41">
         <v>17</v>
       </c>
+      <c r="AT41">
+        <v>191</v>
+      </c>
+      <c r="AU41">
+        <v>13</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>74</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:51">
       <c r="A42">
         <v>41</v>
       </c>
@@ -37008,8 +41386,26 @@
       <c r="AS42">
         <v>13</v>
       </c>
+      <c r="AT42">
+        <v>38</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>50</v>
+      </c>
+      <c r="AX42">
+        <v>52</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:51">
       <c r="A43">
         <v>42</v>
       </c>
@@ -37145,8 +41541,26 @@
       <c r="AS43">
         <v>19</v>
       </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>9</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:51">
       <c r="A44">
         <v>43</v>
       </c>
@@ -37282,8 +41696,26 @@
       <c r="AS44">
         <v>21</v>
       </c>
+      <c r="AT44">
+        <v>5</v>
+      </c>
+      <c r="AU44">
+        <v>1</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>113</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:51">
       <c r="A45">
         <v>44</v>
       </c>
@@ -37419,8 +41851,26 @@
       <c r="AS45">
         <v>8</v>
       </c>
+      <c r="AT45">
+        <v>12</v>
+      </c>
+      <c r="AU45">
+        <v>8</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>37</v>
+      </c>
+      <c r="AX45">
+        <v>25</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:51">
       <c r="A46">
         <v>45</v>
       </c>
@@ -37556,8 +42006,26 @@
       <c r="AS46">
         <v>11</v>
       </c>
+      <c r="AT46">
+        <v>4</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>10</v>
+      </c>
+      <c r="AX46">
+        <v>43</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:51">
       <c r="A47">
         <v>46</v>
       </c>
@@ -37693,8 +42161,26 @@
       <c r="AS47">
         <v>8</v>
       </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>71</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:51">
       <c r="A48">
         <v>47</v>
       </c>
@@ -37830,8 +42316,26 @@
       <c r="AS48">
         <v>22</v>
       </c>
+      <c r="AT48">
+        <v>2</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>17</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:51">
       <c r="A49">
         <v>48</v>
       </c>
@@ -37967,8 +42471,26 @@
       <c r="AS49">
         <v>12</v>
       </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>2</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:51">
       <c r="A50">
         <v>49</v>
       </c>
@@ -38104,8 +42626,26 @@
       <c r="AS50">
         <v>8</v>
       </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
+      <c r="AU50">
+        <v>15</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>1</v>
+      </c>
+      <c r="AX50">
+        <v>9</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:51">
       <c r="A51">
         <v>50</v>
       </c>
@@ -38241,8 +42781,26 @@
       <c r="AS51">
         <v>12</v>
       </c>
+      <c r="AT51">
+        <v>3</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:51">
       <c r="A52">
         <v>51</v>
       </c>
@@ -38378,8 +42936,26 @@
       <c r="AS52">
         <v>8</v>
       </c>
+      <c r="AT52">
+        <v>10</v>
+      </c>
+      <c r="AU52">
+        <v>159</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>19</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:51">
       <c r="A53">
         <v>52</v>
       </c>
@@ -38515,8 +43091,26 @@
       <c r="AS53">
         <v>7</v>
       </c>
+      <c r="AT53">
+        <v>12</v>
+      </c>
+      <c r="AU53">
+        <v>296</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>7</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:51">
       <c r="A54">
         <v>53</v>
       </c>
@@ -38652,8 +43246,26 @@
       <c r="AS54">
         <v>11</v>
       </c>
+      <c r="AT54">
+        <v>7</v>
+      </c>
+      <c r="AU54">
+        <v>9</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:51">
       <c r="A55">
         <v>54</v>
       </c>
@@ -38789,8 +43401,26 @@
       <c r="AS55">
         <v>9</v>
       </c>
+      <c r="AT55">
+        <v>2</v>
+      </c>
+      <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>34</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:51">
       <c r="A56">
         <v>55</v>
       </c>
@@ -38926,8 +43556,26 @@
       <c r="AS56">
         <v>7</v>
       </c>
+      <c r="AT56">
+        <v>2</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>8</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:51">
       <c r="A57">
         <v>56</v>
       </c>
@@ -39063,8 +43711,26 @@
       <c r="AS57">
         <v>5</v>
       </c>
+      <c r="AT57">
+        <v>3</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:51">
       <c r="A58">
         <v>57</v>
       </c>
@@ -39200,8 +43866,26 @@
       <c r="AS58">
         <v>15</v>
       </c>
+      <c r="AT58">
+        <v>4</v>
+      </c>
+      <c r="AU58">
+        <v>8</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>54</v>
+      </c>
+      <c r="AY58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:51">
       <c r="A59">
         <v>58</v>
       </c>
@@ -39337,8 +44021,26 @@
       <c r="AS59">
         <v>16</v>
       </c>
+      <c r="AT59">
+        <v>358</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>2</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:51">
       <c r="A60">
         <v>59</v>
       </c>
@@ -39474,8 +44176,26 @@
       <c r="AS60">
         <v>11</v>
       </c>
+      <c r="AT60">
+        <v>9</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:51">
       <c r="A61">
         <v>60</v>
       </c>
@@ -39611,8 +44331,26 @@
       <c r="AS61">
         <v>7</v>
       </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:51">
       <c r="A62">
         <v>61</v>
       </c>
@@ -39748,8 +44486,26 @@
       <c r="AS62">
         <v>11</v>
       </c>
+      <c r="AT62">
+        <v>21</v>
+      </c>
+      <c r="AU62">
+        <v>2</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>9</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:51">
       <c r="A63">
         <v>62</v>
       </c>
@@ -39885,8 +44641,26 @@
       <c r="AS63">
         <v>5</v>
       </c>
+      <c r="AT63">
+        <v>7</v>
+      </c>
+      <c r="AU63">
+        <v>88</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
+        <v>32</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:51">
       <c r="A64">
         <v>63</v>
       </c>
@@ -40022,8 +44796,26 @@
       <c r="AS64">
         <v>8</v>
       </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>2</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>1</v>
+      </c>
+      <c r="AX64">
+        <v>10</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:51">
       <c r="A65">
         <v>64</v>
       </c>
@@ -40159,8 +44951,26 @@
       <c r="AS65">
         <v>18</v>
       </c>
+      <c r="AT65">
+        <v>2</v>
+      </c>
+      <c r="AU65">
+        <v>2</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>1</v>
+      </c>
+      <c r="AX65">
+        <v>11</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:51">
       <c r="A66">
         <v>65</v>
       </c>
@@ -40296,8 +45106,26 @@
       <c r="AS66">
         <v>12</v>
       </c>
+      <c r="AT66">
+        <v>3</v>
+      </c>
+      <c r="AU66">
+        <v>2</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>10</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:51">
       <c r="A67">
         <v>66</v>
       </c>
@@ -40433,8 +45261,26 @@
       <c r="AS67">
         <v>31</v>
       </c>
+      <c r="AT67">
+        <v>5</v>
+      </c>
+      <c r="AU67">
+        <v>1</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:51">
       <c r="A68">
         <v>67</v>
       </c>
@@ -40570,8 +45416,26 @@
       <c r="AS68">
         <v>18</v>
       </c>
+      <c r="AT68">
+        <v>9</v>
+      </c>
+      <c r="AU68">
+        <v>1</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:51">
       <c r="A69">
         <v>68</v>
       </c>
@@ -40707,8 +45571,26 @@
       <c r="AS69">
         <v>15</v>
       </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:51">
       <c r="A70">
         <v>69</v>
       </c>
@@ -40844,8 +45726,26 @@
       <c r="AS70">
         <v>7</v>
       </c>
+      <c r="AT70">
+        <v>3</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>23</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:51">
       <c r="A71">
         <v>70</v>
       </c>
@@ -40981,8 +45881,26 @@
       <c r="AS71">
         <v>7</v>
       </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>1</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:51">
       <c r="A72">
         <v>71</v>
       </c>
@@ -41118,8 +46036,26 @@
       <c r="AS72">
         <v>17</v>
       </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>17</v>
+      </c>
+      <c r="AY72">
+        <v>4</v>
+      </c>
     </row>
-    <row r="73" spans="1:45">
+    <row r="73" spans="1:51">
       <c r="A73">
         <v>72</v>
       </c>
@@ -41255,8 +46191,26 @@
       <c r="AS73">
         <v>18</v>
       </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>2</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:45">
+    <row r="74" spans="1:51">
       <c r="A74">
         <v>73</v>
       </c>
@@ -41392,8 +46346,26 @@
       <c r="AS74">
         <v>7</v>
       </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:45">
+    <row r="75" spans="1:51">
       <c r="A75">
         <v>74</v>
       </c>
@@ -41529,8 +46501,26 @@
       <c r="AS75">
         <v>11</v>
       </c>
+      <c r="AT75">
+        <v>2</v>
+      </c>
+      <c r="AU75">
+        <v>1</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:45">
+    <row r="76" spans="1:51">
       <c r="A76">
         <v>75</v>
       </c>
@@ -41666,8 +46656,26 @@
       <c r="AS76">
         <v>23</v>
       </c>
+      <c r="AT76">
+        <v>2</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:45">
+    <row r="77" spans="1:51">
       <c r="A77">
         <v>76</v>
       </c>
@@ -41803,8 +46811,26 @@
       <c r="AS77">
         <v>22</v>
       </c>
+      <c r="AT77">
+        <v>3</v>
+      </c>
+      <c r="AU77">
+        <v>1</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
+        <v>15</v>
+      </c>
+      <c r="AY77">
+        <v>20</v>
+      </c>
     </row>
-    <row r="78" spans="1:45">
+    <row r="78" spans="1:51">
       <c r="A78">
         <v>77</v>
       </c>
@@ -41940,8 +46966,26 @@
       <c r="AS78">
         <v>11</v>
       </c>
+      <c r="AT78">
+        <v>3</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>13</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:45">
+    <row r="79" spans="1:51">
       <c r="A79">
         <v>78</v>
       </c>
@@ -42077,8 +47121,26 @@
       <c r="AS79">
         <v>9</v>
       </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79">
+        <v>2</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:45">
+    <row r="80" spans="1:51">
       <c r="A80">
         <v>79</v>
       </c>
@@ -42214,8 +47276,26 @@
       <c r="AS80">
         <v>11</v>
       </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>1</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:51">
       <c r="A81">
         <v>80</v>
       </c>
@@ -42351,8 +47431,26 @@
       <c r="AS81">
         <v>9</v>
       </c>
+      <c r="AT81">
+        <v>11</v>
+      </c>
+      <c r="AU81">
+        <v>26</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:51">
       <c r="A82">
         <v>81</v>
       </c>
@@ -42488,8 +47586,26 @@
       <c r="AS82">
         <v>11</v>
       </c>
+      <c r="AT82">
+        <v>2</v>
+      </c>
+      <c r="AU82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>14</v>
+      </c>
+      <c r="AX82">
+        <v>20</v>
+      </c>
+      <c r="AY82">
+        <v>5</v>
+      </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:51">
       <c r="A83">
         <v>82</v>
       </c>
@@ -42625,8 +47741,26 @@
       <c r="AS83">
         <v>14</v>
       </c>
+      <c r="AT83">
+        <v>7</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>12</v>
+      </c>
+      <c r="AY83">
+        <v>4</v>
+      </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:51">
       <c r="A84">
         <v>83</v>
       </c>
@@ -42762,8 +47896,26 @@
       <c r="AS84">
         <v>14</v>
       </c>
+      <c r="AT84">
+        <v>11</v>
+      </c>
+      <c r="AU84">
+        <v>15</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>2</v>
+      </c>
+      <c r="AX84">
+        <v>42</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:51">
       <c r="A85">
         <v>84</v>
       </c>
@@ -42899,8 +48051,26 @@
       <c r="AS85">
         <v>14</v>
       </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:51">
       <c r="A86">
         <v>85</v>
       </c>
@@ -43036,8 +48206,26 @@
       <c r="AS86">
         <v>7</v>
       </c>
+      <c r="AT86">
+        <v>5</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>12</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:51">
       <c r="A87">
         <v>86</v>
       </c>
@@ -43173,8 +48361,26 @@
       <c r="AS87">
         <v>12</v>
       </c>
+      <c r="AT87">
+        <v>15</v>
+      </c>
+      <c r="AU87">
+        <v>12</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>309</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:51">
       <c r="A88">
         <v>87</v>
       </c>
@@ -43310,8 +48516,26 @@
       <c r="AS88">
         <v>6</v>
       </c>
+      <c r="AT88">
+        <v>1</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>10</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:45">
+    <row r="89" spans="1:51">
       <c r="A89">
         <v>88</v>
       </c>
@@ -43447,8 +48671,26 @@
       <c r="AS89">
         <v>13</v>
       </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>2</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>2</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:45">
+    <row r="90" spans="1:51">
       <c r="A90">
         <v>89</v>
       </c>
@@ -43584,8 +48826,26 @@
       <c r="AS90">
         <v>11</v>
       </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>2</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:45">
+    <row r="91" spans="1:51">
       <c r="A91">
         <v>90</v>
       </c>
@@ -43721,8 +48981,26 @@
       <c r="AS91">
         <v>10</v>
       </c>
+      <c r="AT91">
+        <v>32</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
+      <c r="AW91">
+        <v>14</v>
+      </c>
+      <c r="AX91">
+        <v>8</v>
+      </c>
+      <c r="AY91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:45">
+    <row r="92" spans="1:51">
       <c r="A92">
         <v>91</v>
       </c>
@@ -43858,8 +49136,26 @@
       <c r="AS92">
         <v>8</v>
       </c>
+      <c r="AT92">
+        <v>5</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
+        <v>12</v>
+      </c>
+      <c r="AY92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:45">
+    <row r="93" spans="1:51">
       <c r="A93">
         <v>92</v>
       </c>
@@ -43995,8 +49291,26 @@
       <c r="AS93">
         <v>13</v>
       </c>
+      <c r="AT93">
+        <v>1</v>
+      </c>
+      <c r="AU93">
+        <v>2</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:45">
+    <row r="94" spans="1:51">
       <c r="A94">
         <v>93</v>
       </c>
@@ -44132,8 +49446,26 @@
       <c r="AS94">
         <v>10</v>
       </c>
+      <c r="AT94">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>1</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:45">
+    <row r="95" spans="1:51">
       <c r="A95">
         <v>94</v>
       </c>
@@ -44269,8 +49601,26 @@
       <c r="AS95">
         <v>7</v>
       </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>16</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AY95">
+        <v>14</v>
+      </c>
     </row>
-    <row r="96" spans="1:45">
+    <row r="96" spans="1:51">
       <c r="A96">
         <v>95</v>
       </c>
@@ -44406,8 +49756,26 @@
       <c r="AS96">
         <v>8</v>
       </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:45">
+    <row r="97" spans="1:51">
       <c r="A97">
         <v>96</v>
       </c>
@@ -44543,8 +49911,26 @@
       <c r="AS97">
         <v>10</v>
       </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:45">
+    <row r="98" spans="1:51">
       <c r="A98">
         <v>97</v>
       </c>
@@ -44680,8 +50066,26 @@
       <c r="AS98">
         <v>12</v>
       </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>3</v>
+      </c>
     </row>
-    <row r="99" spans="1:45">
+    <row r="99" spans="1:51">
       <c r="A99">
         <v>98</v>
       </c>
@@ -44817,8 +50221,26 @@
       <c r="AS99">
         <v>7</v>
       </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:45">
+    <row r="100" spans="1:51">
       <c r="A100">
         <v>99</v>
       </c>
@@ -44954,8 +50376,26 @@
       <c r="AS100">
         <v>25</v>
       </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>0</v>
+      </c>
+      <c r="AW100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:45">
+    <row r="101" spans="1:51">
       <c r="A101">
         <v>100</v>
       </c>
@@ -45091,8 +50531,26 @@
       <c r="AS101">
         <v>9</v>
       </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>0</v>
+      </c>
+      <c r="AX101">
+        <v>1</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:45">
+    <row r="102" spans="1:51">
       <c r="A102">
         <v>101</v>
       </c>
@@ -45228,8 +50686,26 @@
       <c r="AS102">
         <v>9</v>
       </c>
+      <c r="AT102">
+        <v>7</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <v>0</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:45">
+    <row r="103" spans="1:51">
       <c r="A103">
         <v>102</v>
       </c>
@@ -45365,8 +50841,26 @@
       <c r="AS103">
         <v>11</v>
       </c>
+      <c r="AT103">
+        <v>18</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>10</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:45">
+    <row r="104" spans="1:51">
       <c r="A104">
         <v>103</v>
       </c>
@@ -45502,8 +50996,26 @@
       <c r="AS104">
         <v>17</v>
       </c>
+      <c r="AT104">
+        <v>0</v>
+      </c>
+      <c r="AU104">
+        <v>1</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>0</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:45">
+    <row r="105" spans="1:51">
       <c r="A105">
         <v>104</v>
       </c>
@@ -45639,8 +51151,26 @@
       <c r="AS105">
         <v>8</v>
       </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
+      <c r="AU105">
+        <v>1</v>
+      </c>
+      <c r="AV105">
+        <v>0</v>
+      </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:45">
+    <row r="106" spans="1:51">
       <c r="A106">
         <v>105</v>
       </c>
@@ -45776,8 +51306,26 @@
       <c r="AS106">
         <v>21</v>
       </c>
+      <c r="AT106">
+        <v>1</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>0</v>
+      </c>
+      <c r="AW106">
+        <v>0</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:45">
+    <row r="107" spans="1:51">
       <c r="A107">
         <v>106</v>
       </c>
@@ -45913,8 +51461,26 @@
       <c r="AS107">
         <v>4</v>
       </c>
+      <c r="AT107">
+        <v>0</v>
+      </c>
+      <c r="AU107">
+        <v>0</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>0</v>
+      </c>
+      <c r="AX107">
+        <v>1</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:45">
+    <row r="108" spans="1:51">
       <c r="A108">
         <v>107</v>
       </c>
@@ -46050,8 +51616,26 @@
       <c r="AS108">
         <v>16</v>
       </c>
+      <c r="AT108">
+        <v>0</v>
+      </c>
+      <c r="AU108">
+        <v>1</v>
+      </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <v>0</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:45">
+    <row r="109" spans="1:51">
       <c r="A109">
         <v>108</v>
       </c>
@@ -46187,8 +51771,26 @@
       <c r="AS109">
         <v>11</v>
       </c>
+      <c r="AT109">
+        <v>0</v>
+      </c>
+      <c r="AU109">
+        <v>1</v>
+      </c>
+      <c r="AV109">
+        <v>0</v>
+      </c>
+      <c r="AW109">
+        <v>0</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:45">
+    <row r="110" spans="1:51">
       <c r="A110">
         <v>109</v>
       </c>
@@ -46324,8 +51926,26 @@
       <c r="AS110">
         <v>15</v>
       </c>
+      <c r="AT110">
+        <v>0</v>
+      </c>
+      <c r="AU110">
+        <v>1</v>
+      </c>
+      <c r="AV110">
+        <v>0</v>
+      </c>
+      <c r="AW110">
+        <v>0</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>23</v>
+      </c>
     </row>
-    <row r="111" spans="1:45">
+    <row r="111" spans="1:51">
       <c r="A111">
         <v>110</v>
       </c>
@@ -46461,8 +52081,26 @@
       <c r="AS111">
         <v>15</v>
       </c>
+      <c r="AT111">
+        <v>0</v>
+      </c>
+      <c r="AU111">
+        <v>0</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>0</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:45">
+    <row r="112" spans="1:51">
       <c r="A112">
         <v>111</v>
       </c>
@@ -46598,8 +52236,26 @@
       <c r="AS112">
         <v>25</v>
       </c>
+      <c r="AT112">
+        <v>0</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>0</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:45">
+    <row r="113" spans="1:51">
       <c r="A113">
         <v>112</v>
       </c>
@@ -46735,8 +52391,26 @@
       <c r="AS113">
         <v>5</v>
       </c>
+      <c r="AT113">
+        <v>0</v>
+      </c>
+      <c r="AU113">
+        <v>0</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
+      <c r="AW113">
+        <v>0</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>5</v>
+      </c>
     </row>
-    <row r="114" spans="1:45">
+    <row r="114" spans="1:51">
       <c r="A114">
         <v>113</v>
       </c>
@@ -46872,8 +52546,26 @@
       <c r="AS114">
         <v>15</v>
       </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
+      <c r="AU114">
+        <v>0</v>
+      </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
+      <c r="AW114">
+        <v>1</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:45">
+    <row r="115" spans="1:51">
       <c r="A115">
         <v>114</v>
       </c>
@@ -47009,8 +52701,26 @@
       <c r="AS115">
         <v>9</v>
       </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
+      <c r="AU115">
+        <v>0</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>1</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>1</v>
+      </c>
     </row>
-    <row r="116" spans="1:45">
+    <row r="116" spans="1:51">
       <c r="A116">
         <v>115</v>
       </c>
@@ -47146,8 +52856,26 @@
       <c r="AS116">
         <v>14</v>
       </c>
+      <c r="AT116">
+        <v>0</v>
+      </c>
+      <c r="AU116">
+        <v>0</v>
+      </c>
+      <c r="AV116">
+        <v>0</v>
+      </c>
+      <c r="AW116">
+        <v>0</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:45">
+    <row r="117" spans="1:51">
       <c r="A117">
         <v>116</v>
       </c>
@@ -47283,8 +53011,26 @@
       <c r="AS117">
         <v>12</v>
       </c>
+      <c r="AT117">
+        <v>0</v>
+      </c>
+      <c r="AU117">
+        <v>0</v>
+      </c>
+      <c r="AV117">
+        <v>0</v>
+      </c>
+      <c r="AW117">
+        <v>0</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:45">
+    <row r="118" spans="1:51">
       <c r="A118">
         <v>117</v>
       </c>
@@ -47420,8 +53166,26 @@
       <c r="AS118">
         <v>3</v>
       </c>
+      <c r="AT118">
+        <v>4</v>
+      </c>
+      <c r="AU118">
+        <v>1</v>
+      </c>
+      <c r="AV118">
+        <v>0</v>
+      </c>
+      <c r="AW118">
+        <v>1</v>
+      </c>
+      <c r="AX118">
+        <v>4</v>
+      </c>
+      <c r="AY118">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:45">
+    <row r="119" spans="1:51">
       <c r="A119">
         <v>118</v>
       </c>
@@ -47557,8 +53321,26 @@
       <c r="AS119">
         <v>10</v>
       </c>
+      <c r="AT119">
+        <v>1</v>
+      </c>
+      <c r="AU119">
+        <v>1</v>
+      </c>
+      <c r="AV119">
+        <v>0</v>
+      </c>
+      <c r="AW119">
+        <v>0</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:45">
+    <row r="120" spans="1:51">
       <c r="A120">
         <v>119</v>
       </c>
@@ -47694,8 +53476,26 @@
       <c r="AS120">
         <v>12</v>
       </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>0</v>
+      </c>
+      <c r="AV120">
+        <v>1</v>
+      </c>
+      <c r="AW120">
+        <v>0</v>
+      </c>
+      <c r="AX120">
+        <v>1</v>
+      </c>
+      <c r="AY120">
+        <v>2</v>
+      </c>
     </row>
-    <row r="121" spans="1:45">
+    <row r="121" spans="1:51">
       <c r="A121">
         <v>120</v>
       </c>
@@ -47831,8 +53631,26 @@
       <c r="AS121">
         <v>7</v>
       </c>
+      <c r="AT121">
+        <v>0</v>
+      </c>
+      <c r="AU121">
+        <v>1</v>
+      </c>
+      <c r="AV121">
+        <v>0</v>
+      </c>
+      <c r="AW121">
+        <v>0</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:45">
+    <row r="122" spans="1:51">
       <c r="A122">
         <v>121</v>
       </c>
@@ -47968,8 +53786,26 @@
       <c r="AS122">
         <v>23</v>
       </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>0</v>
+      </c>
+      <c r="AV122">
+        <v>0</v>
+      </c>
+      <c r="AW122">
+        <v>0</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:45">
+    <row r="123" spans="1:51">
       <c r="A123">
         <v>122</v>
       </c>
@@ -48105,8 +53941,26 @@
       <c r="AS123">
         <v>8</v>
       </c>
+      <c r="AT123">
+        <v>1</v>
+      </c>
+      <c r="AU123">
+        <v>0</v>
+      </c>
+      <c r="AV123">
+        <v>0</v>
+      </c>
+      <c r="AW123">
+        <v>0</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:45">
+    <row r="124" spans="1:51">
       <c r="A124">
         <v>123</v>
       </c>
@@ -48242,8 +54096,26 @@
       <c r="AS124">
         <v>5</v>
       </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>1</v>
+      </c>
+      <c r="AV124">
+        <v>1</v>
+      </c>
+      <c r="AW124">
+        <v>0</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:45">
+    <row r="125" spans="1:51">
       <c r="A125">
         <v>124</v>
       </c>
@@ -48379,8 +54251,26 @@
       <c r="AS125">
         <v>11</v>
       </c>
+      <c r="AT125">
+        <v>5</v>
+      </c>
+      <c r="AU125">
+        <v>16</v>
+      </c>
+      <c r="AV125">
+        <v>67</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>5</v>
+      </c>
+      <c r="AY125">
+        <v>3</v>
+      </c>
     </row>
-    <row r="126" spans="1:45">
+    <row r="126" spans="1:51">
       <c r="A126">
         <v>125</v>
       </c>
@@ -48516,8 +54406,26 @@
       <c r="AS126">
         <v>6</v>
       </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
+      <c r="AU126">
+        <v>2</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>1</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:45">
+    <row r="127" spans="1:51">
       <c r="A127">
         <v>126</v>
       </c>
@@ -48653,8 +54561,26 @@
       <c r="AS127">
         <v>7</v>
       </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>0</v>
+      </c>
+      <c r="AV127">
+        <v>9</v>
+      </c>
+      <c r="AW127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:45">
+    <row r="128" spans="1:51">
       <c r="A128">
         <v>127</v>
       </c>
@@ -48790,8 +54716,26 @@
       <c r="AS128">
         <v>21</v>
       </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
+      <c r="AU128">
+        <v>0</v>
+      </c>
+      <c r="AV128">
+        <v>3</v>
+      </c>
+      <c r="AW128">
+        <v>0</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:45">
+    <row r="129" spans="1:51">
       <c r="A129">
         <v>128</v>
       </c>
@@ -48927,8 +54871,26 @@
       <c r="AS129">
         <v>19</v>
       </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
+      <c r="AU129">
+        <v>0</v>
+      </c>
+      <c r="AV129">
+        <v>0</v>
+      </c>
+      <c r="AW129">
+        <v>0</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>1</v>
+      </c>
     </row>
-    <row r="130" spans="1:45">
+    <row r="130" spans="1:51">
       <c r="A130">
         <v>129</v>
       </c>
@@ -49064,8 +55026,26 @@
       <c r="AS130">
         <v>6</v>
       </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AV130">
+        <v>0</v>
+      </c>
+      <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>6</v>
+      </c>
     </row>
-    <row r="131" spans="1:45">
+    <row r="131" spans="1:51">
       <c r="A131">
         <v>130</v>
       </c>
@@ -49201,8 +55181,26 @@
       <c r="AS131">
         <v>11</v>
       </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>0</v>
+      </c>
+      <c r="AW131">
+        <v>0</v>
+      </c>
+      <c r="AX131">
+        <v>37</v>
+      </c>
+      <c r="AY131">
+        <v>1</v>
+      </c>
     </row>
-    <row r="132" spans="1:45">
+    <row r="132" spans="1:51">
       <c r="A132">
         <v>131</v>
       </c>
@@ -49338,8 +55336,26 @@
       <c r="AS132">
         <v>7</v>
       </c>
+      <c r="AT132">
+        <v>1</v>
+      </c>
+      <c r="AU132">
+        <v>2</v>
+      </c>
+      <c r="AV132">
+        <v>0</v>
+      </c>
+      <c r="AW132">
+        <v>2</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:45">
+    <row r="133" spans="1:51">
       <c r="A133">
         <v>132</v>
       </c>
@@ -49475,8 +55491,26 @@
       <c r="AS133">
         <v>14</v>
       </c>
+      <c r="AT133">
+        <v>4</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>0</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:45">
+    <row r="134" spans="1:51">
       <c r="A134">
         <v>133</v>
       </c>
@@ -49612,8 +55646,26 @@
       <c r="AS134">
         <v>12</v>
       </c>
+      <c r="AT134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
+        <v>0</v>
+      </c>
+      <c r="AV134">
+        <v>7</v>
+      </c>
+      <c r="AW134">
+        <v>0</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:45">
+    <row r="135" spans="1:51">
       <c r="A135">
         <v>134</v>
       </c>
@@ -49749,8 +55801,26 @@
       <c r="AS135">
         <v>8</v>
       </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>0</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:45">
+    <row r="136" spans="1:51">
       <c r="A136">
         <v>135</v>
       </c>
@@ -49886,8 +55956,26 @@
       <c r="AS136">
         <v>23</v>
       </c>
+      <c r="AT136">
+        <v>0</v>
+      </c>
+      <c r="AU136">
+        <v>1</v>
+      </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>0</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:45">
+    <row r="137" spans="1:51">
       <c r="A137">
         <v>136</v>
       </c>
@@ -50022,6 +56110,24 @@
       </c>
       <c r="AS137">
         <v>6</v>
+      </c>
+      <c r="AT137">
+        <v>1</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AV137">
+        <v>0</v>
+      </c>
+      <c r="AW137">
+        <v>0</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
